--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbsan\OneDrive\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbsan\OneDrive\Documents\GitHub\QR-Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EB0ABE-CFF5-4375-8491-DA0E4FC2916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D13F07-B4EA-4BF1-9506-2CE8D0D88445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B5ACC35F-B63A-4206-A606-6E6F2D7D1E73}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>SOFE311, ITPM311, NETW311</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -50,22 +47,25 @@
     <t>student_id</t>
   </si>
   <si>
-    <t>06210009088</t>
-  </si>
-  <si>
-    <t>ARABPOURIAN, Shaun G.</t>
-  </si>
-  <si>
-    <t>06210000789</t>
-  </si>
-  <si>
-    <t>BAKE, Mike D.</t>
-  </si>
-  <si>
-    <t>06210000872</t>
-  </si>
-  <si>
-    <t>PANGILINAN, Mark C.</t>
+    <t>06210000839</t>
+  </si>
+  <si>
+    <t>SANTOS, Joshua B.</t>
+  </si>
+  <si>
+    <t>SOFE311, NETW311, ITPM311, HMBY311</t>
+  </si>
+  <si>
+    <t>06210000788</t>
+  </si>
+  <si>
+    <t>Infante, Gene Paul DC.</t>
+  </si>
+  <si>
+    <t>06210000957</t>
+  </si>
+  <si>
+    <t>Catindig, Aldrin C.</t>
   </si>
 </sst>
 </file>
@@ -447,47 +447,47 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -498,7 +498,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbsan\OneDrive\Documents\GitHub\QR-Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D13F07-B4EA-4BF1-9506-2CE8D0D88445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57B8A1F-ACF1-4817-A544-0B23538972BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B5ACC35F-B63A-4206-A606-6E6F2D7D1E73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B5ACC35F-B63A-4206-A606-6E6F2D7D1E73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Catindig, Aldrin C.</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -444,20 +447,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC03E550-2401-456B-B50B-5E6895F7C2D5}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -467,8 +470,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -478,8 +484,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -489,8 +498,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -499,6 +511,9 @@
       </c>
       <c r="C4" t="s">
         <v>5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
